--- a/Data-sheet-STUDENTS.xlsx
+++ b/Data-sheet-STUDENTS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/workspace/github/essca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabien/Documents/workspace/github/2019-US01-Data-Science/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F216CEA-8511-9B46-91D5-B5A126DB8598}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7938544-ED12-CC4C-B0F2-5B008196A00E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="32880" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1149,14 +1154,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="216" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
